--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\PYTHON\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315FDD2E-D611-4A0E-B9E9-6CFCA95C6C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF31132-F711-46EC-95CF-8DEB68DFD8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C24F3197-38D3-4D68-BC37-A69948D3017B}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
